--- a/Inaf/data-map/Inaf2018_Datamap.xlsx
+++ b/Inaf/data-map/Inaf2018_Datamap.xlsx
@@ -8,20 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guimaraes\Dropbox\GitHub\WiC-EducationQualityMatters\Inaf\data-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610A5B21-0781-489A-B313-34A191DEBCB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D634CC-1F17-4B25-BC42-C51144FAA7F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="791" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="791" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informações da variável" sheetId="1" r:id="rId1"/>
     <sheet name="Valores de variáveis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7083" uniqueCount="1953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7110" uniqueCount="1971">
   <si>
     <t>Variável</t>
   </si>
@@ -5897,6 +5907,60 @@
   <si>
     <t>ProfAlfab</t>
   </si>
+  <si>
+    <t>Primary or less</t>
+  </si>
+  <si>
+    <t>Lower Secondary</t>
+  </si>
+  <si>
+    <t>Upper Secondary</t>
+  </si>
+  <si>
+    <t>ISCED 0: Early childhood education (‘less than primary’ for educational attainment)</t>
+  </si>
+  <si>
+    <t>ISCED 1: Primary education</t>
+  </si>
+  <si>
+    <t>ISCED 2: Lower secondary education</t>
+  </si>
+  <si>
+    <t>ISCED 3: Upper secondary education</t>
+  </si>
+  <si>
+    <t>ISCED 4: Post-secondary non-tertiary education</t>
+  </si>
+  <si>
+    <t>ISCED 5: Short-cycle tertiary education</t>
+  </si>
+  <si>
+    <t>ISCED 6: Bachelor’s or equivalent level</t>
+  </si>
+  <si>
+    <t>ISCED 7: Master’s or equivalent level</t>
+  </si>
+  <si>
+    <t>ISCED 8: Doctoral or equivalent level</t>
+  </si>
+  <si>
+    <t>ISCED 0</t>
+  </si>
+  <si>
+    <t>ISCED 1</t>
+  </si>
+  <si>
+    <t>ISCED 2</t>
+  </si>
+  <si>
+    <t>ISCED 3</t>
+  </si>
+  <si>
+    <t>ISCED 5-8</t>
+  </si>
+  <si>
+    <t>Tertiary</t>
+  </si>
 </sst>
 </file>
 
@@ -5905,7 +5969,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5949,6 +6013,12 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -6754,8 +6824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J411"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="A374" workbookViewId="0">
+      <selection activeCell="B395" sqref="B395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18683,10 +18753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:E3857"/>
+  <dimension ref="B1:I3857"/>
   <sheetViews>
-    <sheetView topLeftCell="A909" workbookViewId="0">
-      <selection activeCell="B921" sqref="B921:B937"/>
+    <sheetView tabSelected="1" topLeftCell="A3602" workbookViewId="0">
+      <selection activeCell="F3615" sqref="F3615:AN3617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52002,7 +52072,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="3617" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3617" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3617" s="30" t="s">
         <v>728</v>
       </c>
@@ -52013,7 +52083,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="3618" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3618" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3618" s="30"/>
       <c r="C3618" s="14">
         <v>5</v>
@@ -52022,7 +52092,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="3619" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3619" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3619" s="30"/>
       <c r="C3619" s="14">
         <v>6</v>
@@ -52031,7 +52101,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="3620" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3620" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3620" s="30" t="s">
         <v>729</v>
       </c>
@@ -52042,7 +52112,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="3621" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3621" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3621" s="30"/>
       <c r="C3621" s="14">
         <v>5</v>
@@ -52051,7 +52121,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="3622" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3622" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3622" s="30"/>
       <c r="C3622" s="14">
         <v>9</v>
@@ -52060,7 +52130,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="3623" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3623" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3623" s="30"/>
       <c r="C3623" s="14">
         <v>12</v>
@@ -52069,7 +52139,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="3624" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3624" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3624" s="30"/>
       <c r="C3624" s="14">
         <v>17</v>
@@ -52078,7 +52148,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="3625" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3625" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3625" s="30" t="s">
         <v>730</v>
       </c>
@@ -52088,8 +52158,17 @@
       <c r="D3625" s="16" t="s">
         <v>1728</v>
       </c>
-    </row>
-    <row r="3626" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E3625" s="20" t="s">
+        <v>1965</v>
+      </c>
+      <c r="F3625" s="20" t="s">
+        <v>1953</v>
+      </c>
+      <c r="I3625" s="20" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="3626" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3626" s="30"/>
       <c r="C3626" s="14">
         <v>4</v>
@@ -52097,8 +52176,17 @@
       <c r="D3626" s="17" t="s">
         <v>1733</v>
       </c>
-    </row>
-    <row r="3627" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E3626" s="20" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F3626" s="20" t="s">
+        <v>1953</v>
+      </c>
+      <c r="I3626" s="20" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="3627" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3627" s="30"/>
       <c r="C3627" s="14">
         <v>5</v>
@@ -52106,8 +52194,17 @@
       <c r="D3627" s="16" t="s">
         <v>1734</v>
       </c>
-    </row>
-    <row r="3628" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E3627" s="20" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F3627" s="20" t="s">
+        <v>1953</v>
+      </c>
+      <c r="I3627" s="20" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="3628" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3628" s="30"/>
       <c r="C3628" s="14">
         <v>8</v>
@@ -52115,8 +52212,17 @@
       <c r="D3628" s="17" t="s">
         <v>1735</v>
       </c>
-    </row>
-    <row r="3629" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E3628" s="20" t="s">
+        <v>1967</v>
+      </c>
+      <c r="F3628" s="20" t="s">
+        <v>1954</v>
+      </c>
+      <c r="I3628" s="20" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="3629" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3629" s="30"/>
       <c r="C3629" s="14">
         <v>9</v>
@@ -52124,8 +52230,17 @@
       <c r="D3629" s="16" t="s">
         <v>1736</v>
       </c>
-    </row>
-    <row r="3630" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E3629" s="20" t="s">
+        <v>1967</v>
+      </c>
+      <c r="F3629" s="20" t="s">
+        <v>1954</v>
+      </c>
+      <c r="I3629" s="20" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="3630" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3630" s="30"/>
       <c r="C3630" s="14">
         <v>11</v>
@@ -52133,8 +52248,17 @@
       <c r="D3630" s="17" t="s">
         <v>1737</v>
       </c>
-    </row>
-    <row r="3631" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E3630" s="20" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F3630" s="20" t="s">
+        <v>1955</v>
+      </c>
+      <c r="I3630" s="20" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="3631" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3631" s="30"/>
       <c r="C3631" s="14">
         <v>12</v>
@@ -52142,8 +52266,17 @@
       <c r="D3631" s="16" t="s">
         <v>1738</v>
       </c>
-    </row>
-    <row r="3632" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E3631" s="20" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F3631" s="20" t="s">
+        <v>1955</v>
+      </c>
+      <c r="I3631" s="20" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="3632" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3632" s="30"/>
       <c r="C3632" s="14">
         <v>15</v>
@@ -52151,8 +52284,17 @@
       <c r="D3632" s="17" t="s">
         <v>1739</v>
       </c>
-    </row>
-    <row r="3633" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E3632" s="20" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F3632" s="20" t="s">
+        <v>1955</v>
+      </c>
+      <c r="I3632" s="20" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="3633" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3633" s="30"/>
       <c r="C3633" s="14">
         <v>17</v>
@@ -52160,8 +52302,17 @@
       <c r="D3633" s="16" t="s">
         <v>1740</v>
       </c>
-    </row>
-    <row r="3634" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E3633" s="20" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F3633" s="20" t="s">
+        <v>1970</v>
+      </c>
+      <c r="I3633" s="20" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="3634" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3634" s="30" t="s">
         <v>731</v>
       </c>
@@ -52172,7 +52323,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="3635" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3635" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3635" s="30"/>
       <c r="C3635" s="14">
         <v>4</v>
@@ -52181,7 +52332,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="3636" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3636" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3636" s="30"/>
       <c r="C3636" s="14">
         <v>5</v>
@@ -52190,7 +52341,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="3637" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3637" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3637" s="30"/>
       <c r="C3637" s="14">
         <v>6</v>
@@ -52199,7 +52350,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="3638" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3638" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3638" s="30"/>
       <c r="C3638" s="12" t="s">
         <v>1745</v>
@@ -52208,7 +52359,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="3639" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3639" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3639" s="30" t="s">
         <v>733</v>
       </c>
@@ -52219,7 +52370,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="3640" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3640" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3640" s="30"/>
       <c r="C3640" s="14">
         <v>4</v>
@@ -52228,7 +52379,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="3641" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3641" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3641" s="30"/>
       <c r="C3641" s="14">
         <v>5</v>
@@ -52237,7 +52388,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="3642" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3642" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3642" s="30"/>
       <c r="C3642" s="14">
         <v>6</v>
@@ -52246,7 +52397,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="3643" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3643" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3643" s="30"/>
       <c r="C3643" s="14">
         <v>9</v>
@@ -52255,7 +52406,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="3644" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3644" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3644" s="30" t="s">
         <v>734</v>
       </c>
@@ -52266,7 +52417,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="3645" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3645" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3645" s="30"/>
       <c r="C3645" s="14">
         <v>4</v>
@@ -52275,7 +52426,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="3646" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3646" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3646" s="30"/>
       <c r="C3646" s="14">
         <v>5</v>
@@ -52284,7 +52435,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="3647" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3647" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3647" s="30"/>
       <c r="C3647" s="14">
         <v>6</v>
@@ -52293,7 +52444,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="3648" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3648" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3648" s="30"/>
       <c r="C3648" s="14">
         <v>8</v>
@@ -54603,6 +54754,8 @@
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B50:B53"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>